--- a/wei.xlsx
+++ b/wei.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbprod1.sharepoint.com/sites/11K-Research/WEI/Shared Documents/Scripts/ChartData/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01F37EB-E7CF-432D-84AD-57D6713317B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A7B47F-CD66-4CE7-B8B3-F412BA3F1EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Economic Index" sheetId="10" r:id="rId1"/>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="931">
   <si>
     <t>Weekly Economic Index</t>
   </si>
@@ -2870,6 +2865,39 @@
   </si>
   <si>
     <t>01/04/2025</t>
+  </si>
+  <si>
+    <t>01/11/2025</t>
+  </si>
+  <si>
+    <t>01/18/2025</t>
+  </si>
+  <si>
+    <t>01/25/2025</t>
+  </si>
+  <si>
+    <t>02/01/2025</t>
+  </si>
+  <si>
+    <t>02/08/2025</t>
+  </si>
+  <si>
+    <t>02/15/2025</t>
+  </si>
+  <si>
+    <t>02/22/2025</t>
+  </si>
+  <si>
+    <t>03/01/2025</t>
+  </si>
+  <si>
+    <t>03/08/2025</t>
+  </si>
+  <si>
+    <t>03/15/2025</t>
+  </si>
+  <si>
+    <t>03/22/2025</t>
   </si>
 </sst>
 </file>
@@ -3478,7 +3506,7 @@
   <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3579,14 +3607,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" customWidth="1"/>
     <col min="3" max="3" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3601,194 +3629,194 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
       <c r="B2">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="B3">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
       <c r="B4">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="B5">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="B6">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="B7">
-        <v>2.35</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="B8">
-        <v>1.99</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="B9">
-        <v>2.0299999999999998</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="B10">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
       <c r="B11">
-        <v>2.0699999999999998</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="B12">
-        <v>2.2200000000000002</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="B13">
-        <v>1.94</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="B14">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="B15">
-        <v>2.11</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="B16">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="B17">
-        <v>2.04</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="B18">
-        <v>1.87</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="B19">
-        <v>3.21</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="B20">
-        <v>1.69</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="B21">
-        <v>2.17</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="B22">
-        <v>2.77</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="B23">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="B24">
-        <v>2.7</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="B25">
-        <v>2.0099999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3800,16 +3828,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H889"/>
+  <dimension ref="A1:H900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A864" workbookViewId="0">
-      <selection activeCell="F901" sqref="F901"/>
+    <sheetView topLeftCell="A864" workbookViewId="0">
+      <selection activeCell="B900" sqref="B900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" customWidth="1"/>
     <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
@@ -23928,7 +23956,7 @@
         <v>849</v>
       </c>
       <c r="B822">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="C822">
         <v>1.53</v>
@@ -24129,7 +24157,7 @@
         <v>867</v>
       </c>
       <c r="B840">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="C840">
         <v>1.33</v>
@@ -24140,7 +24168,7 @@
         <v>868</v>
       </c>
       <c r="B841">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="C841">
         <v>1.95</v>
@@ -24618,7 +24646,7 @@
         <v>918</v>
       </c>
       <c r="B888">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.35">
@@ -24626,7 +24654,95 @@
         <v>919</v>
       </c>
       <c r="B889">
-        <v>2.0099999999999998</v>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A890" t="s">
+        <v>920</v>
+      </c>
+      <c r="B890">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A891" t="s">
+        <v>921</v>
+      </c>
+      <c r="B891">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A892" t="s">
+        <v>922</v>
+      </c>
+      <c r="B892">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A893" t="s">
+        <v>923</v>
+      </c>
+      <c r="B893">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A894" t="s">
+        <v>924</v>
+      </c>
+      <c r="B894">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A895" t="s">
+        <v>925</v>
+      </c>
+      <c r="B895">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A896" t="s">
+        <v>926</v>
+      </c>
+      <c r="B896">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A897" t="s">
+        <v>927</v>
+      </c>
+      <c r="B897">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A898" t="s">
+        <v>928</v>
+      </c>
+      <c r="B898">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A899" t="s">
+        <v>929</v>
+      </c>
+      <c r="B899">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A900" t="s">
+        <v>930</v>
+      </c>
+      <c r="B900">
+        <v>2.0699999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -28499,544 +28615,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d64264fa-5603-4e4e-a2f4-32f4724a08c4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed7b4a81-9099-4913-ba9f-e5d39e0bdbe1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB7486647D1CC14B9C6062784A128A36" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22ccda5a084eb3b5fe119ebb16d2cb01">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="af44d872-6276-42da-ba23-58815cdf9cb3" xmlns:ns3="65be3a06-bb6d-4c13-a9a3-cc084370b569" xmlns:ns4="d64264fa-5603-4e4e-a2f4-32f4724a08c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e6f73a982bec0d198ae84c9dbdcde1c" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="af44d872-6276-42da-ba23-58815cdf9cb3"/>
-    <xsd:import namespace="65be3a06-bb6d-4c13-a9a3-cc084370b569"/>
-    <xsd:import namespace="d64264fa-5603-4e4e-a2f4-32f4724a08c4"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="af44d872-6276-42da-ba23-58815cdf9cb3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="65be3a06-bb6d-4c13-a9a3-cc084370b569" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b94cc3ae-357c-4eb4-84e8-520ab3b4f5d4" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d64264fa-5603-4e4e-a2f4-32f4724a08c4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{16d9472d-1989-4ef1-b5c3-8a599e031858}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="af44d872-6276-42da-ba23-58815cdf9cb3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010039965767963D294DAEE5946A543F363D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cead3d7bc7ca7479d47cbc8871499c26">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ed7b4a81-9099-4913-ba9f-e5d39e0bdbe1" xmlns:ns3="d64264fa-5603-4e4e-a2f4-32f4724a08c4" xmlns:ns4="2814f50d-da92-4ebb-b3e7-78ffc71e2a52" xmlns:ns5="b6b0a385-71c1-4ba9-b48d-f3f9140e37ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea7cc572a48e0c559aabff478f0ee264" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="ed7b4a81-9099-4913-ba9f-e5d39e0bdbe1"/>
-    <xsd:import namespace="d64264fa-5603-4e4e-a2f4-32f4724a08c4"/>
-    <xsd:import namespace="2814f50d-da92-4ebb-b3e7-78ffc71e2a52"/>
-    <xsd:import namespace="b6b0a385-71c1-4ba9-b48d-f3f9140e37ea"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns5:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="10" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="11" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ed7b4a81-9099-4913-ba9f-e5d39e0bdbe1" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b94cc3ae-357c-4eb4-84e8-520ab3b4f5d4" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="23" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d64264fa-5603-4e4e-a2f4-32f4724a08c4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8d62b0c9-db67-4e82-b694-67e81e0f5876}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="af44d872-6276-42da-ba23-58815cdf9cb3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2814f50d-da92-4ebb-b3e7-78ffc71e2a52" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b6b0a385-71c1-4ba9-b48d-f3f9140e37ea" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6571A0FD-9AC6-4CDC-89CF-F70DDA97371B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20F657D7-7922-4CCE-8BCD-B8253EA3BAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d64264fa-5603-4e4e-a2f4-32f4724a08c4"/>
-    <ds:schemaRef ds:uri="65be3a06-bb6d-4c13-a9a3-cc084370b569"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C735B7E-CF8B-4CBB-9624-364E836AFB4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="af44d872-6276-42da-ba23-58815cdf9cb3"/>
-    <ds:schemaRef ds:uri="65be3a06-bb6d-4c13-a9a3-cc084370b569"/>
-    <ds:schemaRef ds:uri="d64264fa-5603-4e4e-a2f4-32f4724a08c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932B093E-3054-45D1-8F7D-C0CE7B7036A6}"/>
 </file>